--- a/INTLINE/data/132/EPSE/CAC 40 Price Index - Weekly.xlsx
+++ b/INTLINE/data/132/EPSE/CAC 40 Price Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQW2"/>
+  <dimension ref="A1:BRA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9439,15 +9439,35 @@
       </c>
       <c r="BQU1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="BQV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="BQW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="BQX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="BQY1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BQV1" s="1" t="inlineStr">
+      <c r="BQZ1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BQW1" s="1" t="inlineStr">
+      <c r="BRA1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -14896,19 +14916,31 @@
         <v>6684.31</v>
       </c>
       <c r="BQT2" t="n">
-        <v>6645.51</v>
-      </c>
-      <c r="BQU2" t="inlineStr">
+        <v>6548.22</v>
+      </c>
+      <c r="BQU2" t="n">
+        <v>6589.35</v>
+      </c>
+      <c r="BQV2" t="n">
+        <v>6581.42</v>
+      </c>
+      <c r="BQW2" t="n">
+        <v>6533.77</v>
+      </c>
+      <c r="BQX2" t="n">
+        <v>6476.18</v>
+      </c>
+      <c r="BQY2" t="inlineStr">
         <is>
           <t>CAC40</t>
         </is>
       </c>
-      <c r="BQV2" t="inlineStr">
+      <c r="BQZ2" t="inlineStr">
         <is>
           <t>CAC 40 Price Index, Close Price</t>
         </is>
       </c>
-      <c r="BQW2" t="inlineStr">
+      <c r="BRA2" t="inlineStr">
         <is>
           <t>Index: 1987.12.31=1000</t>
         </is>

--- a/INTLINE/data/132/EPSE/CAC 40 Price Index - Weekly.xlsx
+++ b/INTLINE/data/132/EPSE/CAC 40 Price Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BRH2"/>
+  <dimension ref="A1:BRI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9494,15 +9494,20 @@
       </c>
       <c r="BRF1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="BRG1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="BRG1" s="1" t="inlineStr">
+      <c r="BRH1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="BRH1" s="1" t="inlineStr">
+      <c r="BRI1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -14984,19 +14989,22 @@
         <v>5882.65</v>
       </c>
       <c r="BRE2" t="n">
-        <v>5964.66</v>
-      </c>
-      <c r="BRF2" t="inlineStr">
+        <v>6073.35</v>
+      </c>
+      <c r="BRF2" t="n">
+        <v>6047.31</v>
+      </c>
+      <c r="BRG2" t="inlineStr">
         <is>
           <t>CAC40</t>
         </is>
       </c>
-      <c r="BRG2" t="inlineStr">
+      <c r="BRH2" t="inlineStr">
         <is>
           <t>CAC 40 Price Index, Close Price</t>
         </is>
       </c>
-      <c r="BRH2" t="inlineStr">
+      <c r="BRI2" t="inlineStr">
         <is>
           <t>Index: 1987.12.31=1000</t>
         </is>
